--- a/overtreding_api/uploads/sheet.xlsx
+++ b/overtreding_api/uploads/sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1161">
   <si>
     <t>Rights during an alcoholic check by the police</t>
   </si>
@@ -3174,208 +3174,49 @@
     <t>83.3. De afmetingen van bespannen voertuigen mogen niet groter zijn dan deze bepaald door het technisch reglement van de auto's.</t>
   </si>
   <si>
-    <t>62bis radardetector radar verklikker radarverklikker</t>
-  </si>
-  <si>
-    <t>Bezit van een radardetector/radarverklikker (62 bis Wegverkeerswet)</t>
-  </si>
-  <si>
-    <t>ABCD_0048</t>
-  </si>
-  <si>
-    <t>ABCD_0049</t>
-  </si>
-  <si>
-    <t>ABCD_0050</t>
-  </si>
-  <si>
-    <t>#TOTALAMOUNT15#: ((100x6)+100) tot ((1000x6)+100)
-#TOTALAMOUNT2#: (25x6)</t>
-  </si>
-  <si>
-    <t>67ter identiteit bestuurder</t>
-  </si>
-  <si>
-    <t>Niet meedelen van de identiteit van de bestuurder door de onderneming wanneer ze daarom gevraagd wordt (67 ter Wegverkeerswet)</t>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Uw rijbewijs kan niet onmiddellijk worden ingetrokken. U ontvangt een onmiddellijke inning van 50 EUR.</t>
+  </si>
+  <si>
+    <t>Wanneer de onmiddellijke inning niet wordt betaald, ontvangt u een minnelijke schikking van 60 EUR.</t>
+  </si>
+  <si>
+    <t>Wanneer ook de minnelijke schikking niet wordt betaald, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen. Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT1#. Deze geldboetes worden verdubbeld wanneer u minder dan 3 jaar eerder reeds voor gelijkaardige feiten werd veroordeeld. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#. De rechter kan geen verval van het recht tot sturen uitspreken.  Opmerking: als u wordt veroordeeld voor overdreven snelheid én een ongeval met gekwetsten, dan moet een rijverbod van minstens 3 maanden worden uitgesproken</t>
+  </si>
+  <si>
+    <t>Uw rijbewijs kan niet onmiddellijk worden ingetrokken. U ontvangt een onmiddellijke inning van #TOTALAMOUNT3#.</t>
+  </si>
+  <si>
+    <t>Wanneer de onmiddellijke inning niet wordt betaald, ontvangt u een minnelijke schikking van #TOTALAMOUNT4#.</t>
+  </si>
+  <si>
+    <t>Uw rijbewijs kan niet onmiddellijk worden ingetrokken. U ontvangt een onmiddellijke inning van #TOTALAMOUNT5#.</t>
+  </si>
+  <si>
+    <t>Wanneer de onmiddellijke inning niet wordt betaald, ontvangt u een minnelijke schikking van #TOTALAMOUNT6#.</t>
+  </si>
+  <si>
+    <t>Uw rijbewijs kan wel onmiddellijk worden ingetrokken. U ontvangt een onmiddellijke inning van #TOTALAMOUNT3#. Werd de overtreding begaan met een bus, een autocar of een vrachtwagen, of bij slechte weersomstandigheden, dan komt u in principe niet in aanmerking voor een onmiddellijke inning. De politiediensten moeten contact opnemen met de procureur, die in se uw rijbewijs moet intrekken.</t>
+  </si>
+  <si>
+    <t>ABCD_0009</t>
+  </si>
+  <si>
+    <t>Heeft u uw rijbewijs minder dan 2 jaar op het ogenblik van de overtreding, dan kan uw rijbewijs onmiddellijk worden ingetrokken. U komt niet in aanmerking voor een onmiddellijke inning of minnelijke schikking. In principe wordt u sowieso gedagvaard voor de politierechtbank. Bovendien is de rechter verplicht u een rijverbod van minstens 8 dagen op te leggen. Bovendien dient u te kiezen of u uw praktisch of uw theoretisch examen opnieuw wenst af te leggen.</t>
   </si>
   <si>
     <t>ABCD_0009_1</t>
   </si>
   <si>
+    <t>U komt niet in aanmerking voor een onmiddellijke inning.</t>
+  </si>
+  <si>
     <t>ABCD_0009_2</t>
-  </si>
-  <si>
-    <t>ABCD_0051</t>
-  </si>
-  <si>
-    <t>#TOTALAMOUNT16#: ((200x6)+100) tot ((4000x6)+100)
-#TOTALAMOUNT2#: (25x6)</t>
-  </si>
-  <si>
-    <t>"Wet 21 juni 1985" keuring technisch</t>
-  </si>
-  <si>
-    <t>Geen geldige technische keuring (Wet 21 juni 1985 technische eisen)</t>
-  </si>
-  <si>
-    <t>ABCD_0052</t>
-  </si>
-  <si>
-    <t>ABCD_0053</t>
-  </si>
-  <si>
-    <t>#TOTALAMOUNT17#: ((10x6)+100) tot ((10000x6)+100)
-#TOTALAMOUNT2#: (25x6)</t>
-  </si>
-  <si>
-    <t>"Wet 21 juni 1985" keuring keuringsbewijs</t>
-  </si>
-  <si>
-    <t>Keuringsbewijs niet bij (Wet 21 juni 1985 technische eisen)</t>
-  </si>
-  <si>
-    <t>ABCD_0054</t>
-  </si>
-  <si>
-    <t>"Wet 21 juni 1985" vals vervalst keuring keuringsbewijs</t>
-  </si>
-  <si>
-    <t>Vals of vervalst keuringsbewijs (Wet 21 juni 1985 technische eisen)</t>
-  </si>
-  <si>
-    <t>ABCD_0055</t>
-  </si>
-  <si>
-    <t>22 "Wet Aansprakelijkheid Motorrijtuigen" verzekerd verzekering</t>
-  </si>
-  <si>
-    <t>Niet verzekerd (22 § 1 Wet Aansprakelijkheid Motorrijtuigen 21 november 1989)</t>
-  </si>
-  <si>
-    <t>ABCD_0056</t>
-  </si>
-  <si>
-    <t>ABCD_0057</t>
-  </si>
-  <si>
-    <t>ABCD_0058</t>
-  </si>
-  <si>
-    <t>#TOTALAMOUNT18#: ((100x6)+100) tot ((1500x6)+100)
-#TOTALAMOUNT2#: (25x6)</t>
-  </si>
-  <si>
-    <t>22 "Wet Aansprakelijkheid Motorrijtuigen" verzekering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verzekering niet bij (22 § 1 Wet Aansprakelijkheid Motorrijtuigen 21 november 1989) </t>
-  </si>
-  <si>
-    <t>ABCD_0059</t>
-  </si>
-  <si>
-    <t>ABCD_0060</t>
-  </si>
-  <si>
-    <t>ABCD_0061</t>
-  </si>
-  <si>
-    <t>33"Wegverkeerswet 16 maart 1968"  vluchtmisdrijf gewonden</t>
-  </si>
-  <si>
-    <t>Vluchtmisdrijf zonder gewonden (33 § 1 Wegverkeerswet 16 maart 1968)</t>
-  </si>
-  <si>
-    <t>ABCD_0062</t>
-  </si>
-  <si>
-    <t>ABCD_0064</t>
-  </si>
-  <si>
-    <t>33 "Wegverkeerswet 16 maart 1968" vluchtmisdrijf gewonden</t>
-  </si>
-  <si>
-    <t>Vluchtmisdrijf met gewonden (33 § 2 Wegverkeerswet 16 maart 1968)</t>
-  </si>
-  <si>
-    <t>ABCD_0065</t>
-  </si>
-  <si>
-    <t>#TOTALAMOUNT19#: ((400x6)+100) tot ((5000x6)+100)
-#TOTALAMOUNT2#: (25x6)</t>
-  </si>
-  <si>
-    <t>30 "Wegverkeerswet 16 maart 1968" rijbewijs</t>
-  </si>
-  <si>
-    <t>Geen geldig rijbewijs (30 § 1 Wegverkeerswet 16 maart 1968)</t>
-  </si>
-  <si>
-    <t>ABCD_0063</t>
-  </si>
-  <si>
-    <t>ABCD_0066</t>
-  </si>
-  <si>
-    <t>30 "Wegverkeerswet 16 maart 1968" voorlopig rijbewijs</t>
-  </si>
-  <si>
-    <t>Rijden in strijd met voorlopig rijbewijs (30 § 2 Wegverkeerswet 16 maart 1968)</t>
-  </si>
-  <si>
-    <t>ABCD_0067</t>
-  </si>
-  <si>
-    <t>#TOTALAMOUNT20#: ((500x6)+100) tot ((500x6)+100)
-#TOTALAMOUNT2#: (25x6)</t>
-  </si>
-  <si>
-    <t>30 "Wegverkeerswet 16 maart 1968" onmiddellijke intrekking</t>
-  </si>
-  <si>
-    <t>Rijden tijdens onmiddellijke intrekking (30 § 3 Wegverkeerswet 16 maart 1968)</t>
-  </si>
-  <si>
-    <t>ABCD_0068</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Uw rijbewijs kan niet onmiddellijk worden ingetrokken. U ontvangt een onmiddellijke inning van 50 EUR.</t>
-  </si>
-  <si>
-    <t>Wanneer de onmiddellijke inning niet wordt betaald, ontvangt u een minnelijke schikking van 60 EUR.</t>
-  </si>
-  <si>
-    <t>Wanneer ook de minnelijke schikking niet wordt betaald, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen. Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT1#. Deze geldboetes worden verdubbeld wanneer u minder dan 3 jaar eerder reeds voor gelijkaardige feiten werd veroordeeld. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#. De rechter kan geen verval van het recht tot sturen uitspreken.  Opmerking: als u wordt veroordeeld voor overdreven snelheid én een ongeval met gekwetsten, dan moet een rijverbod van minstens 3 maanden worden uitgesproken</t>
-  </si>
-  <si>
-    <t>Uw rijbewijs kan niet onmiddellijk worden ingetrokken. U ontvangt een onmiddellijke inning van #TOTALAMOUNT3#.</t>
-  </si>
-  <si>
-    <t>Wanneer de onmiddellijke inning niet wordt betaald, ontvangt u een minnelijke schikking van #TOTALAMOUNT4#.</t>
-  </si>
-  <si>
-    <t>Uw rijbewijs kan niet onmiddellijk worden ingetrokken. U ontvangt een onmiddellijke inning van #TOTALAMOUNT5#.</t>
-  </si>
-  <si>
-    <t>Wanneer de onmiddellijke inning niet wordt betaald, ontvangt u een minnelijke schikking van #TOTALAMOUNT6#.</t>
-  </si>
-  <si>
-    <t>Uw rijbewijs kan wel onmiddellijk worden ingetrokken. U ontvangt een onmiddellijke inning van #TOTALAMOUNT3#. Werd de overtreding begaan met een bus, een autocar of een vrachtwagen, of bij slechte weersomstandigheden, dan komt u in principe niet in aanmerking voor een onmiddellijke inning. De politiediensten moeten contact opnemen met de procureur, die in se uw rijbewijs moet intrekken.</t>
-  </si>
-  <si>
-    <t>ABCD_0009</t>
-  </si>
-  <si>
-    <t>Heeft u uw rijbewijs minder dan 2 jaar op het ogenblik van de overtreding, dan kan uw rijbewijs onmiddellijk worden ingetrokken. U komt niet in aanmerking voor een onmiddellijke inning of minnelijke schikking. In principe wordt u sowieso gedagvaard voor de politierechtbank. Bovendien is de rechter verplicht u een rijverbod van minstens 8 dagen op te leggen. Bovendien dient u te kiezen of u uw praktisch of uw theoretisch examen opnieuw wenst af te leggen.</t>
-  </si>
-  <si>
-    <t>U komt niet in aanmerking voor een onmiddellijke inning.</t>
   </si>
   <si>
     <t>U komt niet in aanmerking voor een minnelijke schikking.</t>
@@ -3606,16 +3447,31 @@
     <t>Wanneer ook de minnelijke schikking niet wordt betaald, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen. Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT14#. Deze geldboetes worden verdubbeld wanneer u minder dan 3 jaar eerder reeds voor gelijkaardige feiten werd veroordeeld. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#. De rechter kan wel een verval van het recht tot sturen uitspreken.</t>
   </si>
   <si>
+    <t>ABCD_0048</t>
+  </si>
+  <si>
     <t>Uw rijbewijs kan wel onmiddellijk worden ingetrokken. U komt niet in aanmerking voor een onmiddellijke inning.</t>
   </si>
   <si>
+    <t>ABCD_0049</t>
+  </si>
+  <si>
     <t>Uw rijbewijs kan wel onmiddellijk worden ingetrokken. U komt niet in aanmerking voor een minnelijke schikking.</t>
   </si>
   <si>
+    <t>ABCD_0050</t>
+  </si>
+  <si>
     <t>Omdat u principieel niet in aanmerking komt voor een minnelijke schikking, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen. Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT15#. De rechtbank kan u ook een gevangenisstraf van 15 dagen tot 3 maanden opleggen. Deze straffen worden verdubbeld bij herhaling binnen de 3 jaar. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#. De rechter kan verval van het recht tot sturen van minimaal 8 dagen uitspreken (bij een ongeval met gewonden is een rijverbod van minstens 3 maanden verplicht). De verklikker wordt verbeurd verklaard en vernietigd.</t>
   </si>
   <si>
+    <t>ABCD_0051</t>
+  </si>
+  <si>
     <t>Omdat u principieel niet in aanmerking komt voor een minnelijke schikking, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen. Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT16#. De rechtbank kan u ook een gevangenisstraf van 15 dagen tot 6 maanden opleggen. Deze straffen worden verdubbeld bij herhaling binnen de 3 jaar. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#. De rechter kan geen verval van het recht tot sturen uitspreken.</t>
+  </si>
+  <si>
+    <t>ABCD_0052</t>
   </si>
   <si>
     <r>
@@ -3628,7 +3484,13 @@
     </r>
   </si>
   <si>
+    <t>ABCD_0053</t>
+  </si>
+  <si>
     <t>Wanneer ook de minnelijke schikking niet wordt betaald, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen. Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT17#. Bovendien kan de rechtbank een gevangenisstraf van 8 dagen tot 3 maanden opleggen. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#. De rechtbank kan de overtreder bovendien verbieden voertuigen te verkopen of verhuren in België. De opgelegde straf wordt verdubbeld bij herhaling binnen de 2 jaar.</t>
+  </si>
+  <si>
+    <t>ABCD_0054</t>
   </si>
   <si>
     <r>
@@ -3641,6 +3503,9 @@
     </r>
   </si>
   <si>
+    <t>ABCD_0055</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3651,40 +3516,79 @@
     </r>
   </si>
   <si>
+    <t>ABCD_0056</t>
+  </si>
+  <si>
     <t>U komt niet in aanmerking voor een onmiddellijke inning. Het voertuig kan in beslag genomen/geïmmobiliseerd worden.</t>
   </si>
   <si>
+    <t>ABCD_0057</t>
+  </si>
+  <si>
     <t>In principe komt u niet in aanmerking voor een minnelijke schikking. Uw rijbewijs kan wel onmiddellijk worden ingetrokken.</t>
   </si>
   <si>
+    <t>ABCD_0058</t>
+  </si>
+  <si>
     <t>Wanneer ook de minnelijke schikking niet wordt betaald, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen. Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT18#. De rechtbank kan ook een gevangenisstraf van 8 dagen tot 6 maanden opleggen. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#. De rechter kan verval van het recht tot sturen van minimaal 8 dagen uitspreken.</t>
   </si>
   <si>
+    <t>ABCD_0059</t>
+  </si>
+  <si>
     <t>U krijgt een PV van waarschuwing</t>
   </si>
   <si>
+    <t>ABCD_0060</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wanneer u het verzekeringsbewijs niet toont, kan u een minnelijke schikking worden voorgesteld. </t>
   </si>
   <si>
+    <t>ABCD_0061</t>
+  </si>
+  <si>
     <t>Wanneer ook de minnelijke schikking niet wordt betaald, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen. Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT11#. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#.</t>
   </si>
   <si>
+    <t>ABCD_0062</t>
+  </si>
+  <si>
     <t>In principe komt u niet in aanmerking voor een minnelijke schikking. Uw rijbewijs kan niet worden ingetrokken (tenzij u geïntoxiceerd of dronken was).</t>
   </si>
   <si>
+    <t>ABCD_0063</t>
+  </si>
+  <si>
     <t>In principe komt u niet in aanmerking voor een minnelijke schikking</t>
   </si>
   <si>
+    <t>ABCD_0064</t>
+  </si>
+  <si>
     <t>Wanneer ook de minnelijke schikking niet wordt betaald, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen. Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT8#. De rechtbank kan ook een gevangenisstraf van 15 dagen tot 6 maanden opleggen. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#. De rechter kan verval van het recht tot sturen van minimaal 8 dagen uitspreken.</t>
   </si>
   <si>
+    <t>ABCD_0065</t>
+  </si>
+  <si>
     <t>Wanneer ook de minnelijke schikking niet wordt betaald, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen. Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT19#. De rechtbank kan ook een gevangenisstraf van 15 dagen tot 2 jaar opleggen. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#. De rechter moet verval van het recht tot sturen van minimaal 3 maand uitspreken en minstens een praktische, theoretische en psychologische proef opleggen.</t>
   </si>
   <si>
+    <t>ABCD_0066</t>
+  </si>
+  <si>
     <t>Wanneer ook de minnelijke schikking niet wordt betaald, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen. Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT8#. De rechtbank kan ook een gevangenisstraf van 15 dagen tot 2 jaar opleggen. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#. De rechter kan verval van het recht tot sturen van minimaal 8 dagen uitspreken.</t>
   </si>
   <si>
+    <t>ABCD_0067</t>
+  </si>
+  <si>
     <t>Wanneer ook de minnelijke schikking niet wordt betaald, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen.  Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT20#.  De rechtbank kan ook een gevangenisstraf van 15 dagen tot 2 jaar opleggen. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#. De rechter kan geen verval van het recht tot sturen uitspreken.</t>
+  </si>
+  <si>
+    <t>ABCD_0068</t>
   </si>
   <si>
     <t>Wanneer ook de minnelijke schikking niet wordt betaald, ontvangt u een bevel tot betalen of een dagvaarding voor het gerecht. Ontvangt u een bevel tot betalen dan moet u binnen de 45 dagen betalen. Gaat u niet akkoord met het bevel, dan moet u binnen de 30 dagen bezwaar instellen. Werd geen bezwaar ingesteld en niet (tijdig) betaald, dan kan het bedrag worden afgehouden van de belastingen. Wordt u gedagvaard voor de rechtbank, dan bedraagt de boete #TOTALAMOUNT8#. De rechtbank kan ook een gevangenisstraf van 3 maanden tot 2 jaar opleggen. Bedraagt de boete meer dan #TOTALAMOUNT2#, dan betaalt u bovendien een bijdrage aan het Slachtofferfonds van #TOTALAMOUNT2#. De rechter moet verval van het recht tot sturen van minimaal 3 maand uitspreken.</t>
@@ -3948,7 +3852,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4013,9 +3917,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -6022,7 +5923,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I490"/>
+  <dimension ref="A1:I478"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -17994,282 +17895,6 @@
         <v>91</v>
       </c>
     </row>
-    <row r="479" ht="28" customHeight="1">
-      <c r="A479" s="22"/>
-      <c r="B479" t="s" s="21">
-        <v>1040</v>
-      </c>
-      <c r="C479" t="s" s="9">
-        <v>1041</v>
-      </c>
-      <c r="D479" t="s" s="9">
-        <v>1042</v>
-      </c>
-      <c r="E479" s="7"/>
-      <c r="F479" t="s" s="9">
-        <v>1043</v>
-      </c>
-      <c r="G479" s="7"/>
-      <c r="H479" t="s" s="9">
-        <v>1044</v>
-      </c>
-      <c r="I479" t="s" s="11">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="480" ht="28" customHeight="1">
-      <c r="A480" s="22"/>
-      <c r="B480" t="s" s="21">
-        <v>1046</v>
-      </c>
-      <c r="C480" t="s" s="9">
-        <v>1047</v>
-      </c>
-      <c r="D480" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="E480" s="7"/>
-      <c r="F480" t="s" s="9">
-        <v>1049</v>
-      </c>
-      <c r="G480" s="7"/>
-      <c r="H480" t="s" s="9">
-        <v>1050</v>
-      </c>
-      <c r="I480" t="s" s="11">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="481" ht="28" customHeight="1">
-      <c r="A481" s="22"/>
-      <c r="B481" t="s" s="21">
-        <v>1052</v>
-      </c>
-      <c r="C481" t="s" s="9">
-        <v>1053</v>
-      </c>
-      <c r="D481" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="E481" s="7"/>
-      <c r="F481" t="s" s="9">
-        <v>1054</v>
-      </c>
-      <c r="G481" s="7"/>
-      <c r="H481" t="s" s="9">
-        <v>1055</v>
-      </c>
-      <c r="I481" t="s" s="11">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="482" ht="28" customHeight="1">
-      <c r="A482" s="22"/>
-      <c r="B482" t="s" s="21">
-        <v>1057</v>
-      </c>
-      <c r="C482" t="s" s="9">
-        <v>1058</v>
-      </c>
-      <c r="D482" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="E482" s="7"/>
-      <c r="F482" t="s" s="9">
-        <v>1059</v>
-      </c>
-      <c r="G482" s="7"/>
-      <c r="H482" t="s" s="9">
-        <v>1055</v>
-      </c>
-      <c r="I482" t="s" s="11">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="483" ht="28" customHeight="1">
-      <c r="A483" s="22"/>
-      <c r="B483" t="s" s="21">
-        <v>1060</v>
-      </c>
-      <c r="C483" t="s" s="9">
-        <v>1061</v>
-      </c>
-      <c r="D483" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="E483" s="7"/>
-      <c r="F483" t="s" s="9">
-        <v>1062</v>
-      </c>
-      <c r="G483" s="7"/>
-      <c r="H483" t="s" s="9">
-        <v>1055</v>
-      </c>
-      <c r="I483" t="s" s="11">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="484" ht="28" customHeight="1">
-      <c r="A484" s="22"/>
-      <c r="B484" t="s" s="21">
-        <v>1063</v>
-      </c>
-      <c r="C484" t="s" s="9">
-        <v>1064</v>
-      </c>
-      <c r="D484" t="s" s="9">
-        <v>1065</v>
-      </c>
-      <c r="E484" s="7"/>
-      <c r="F484" t="s" s="9">
-        <v>1066</v>
-      </c>
-      <c r="G484" s="7"/>
-      <c r="H484" t="s" s="9">
-        <v>1067</v>
-      </c>
-      <c r="I484" t="s" s="11">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="485" ht="28" customHeight="1">
-      <c r="A485" s="22"/>
-      <c r="B485" t="s" s="21">
-        <v>1069</v>
-      </c>
-      <c r="C485" t="s" s="9">
-        <v>1070</v>
-      </c>
-      <c r="D485" t="s" s="9">
-        <v>1071</v>
-      </c>
-      <c r="E485" s="7"/>
-      <c r="F485" t="s" s="9">
-        <v>1072</v>
-      </c>
-      <c r="G485" s="7"/>
-      <c r="H485" t="s" s="9">
-        <v>1073</v>
-      </c>
-      <c r="I485" t="s" s="11">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="486" ht="28" customHeight="1">
-      <c r="A486" s="22"/>
-      <c r="B486" t="s" s="21">
-        <v>1074</v>
-      </c>
-      <c r="C486" t="s" s="9">
-        <v>1075</v>
-      </c>
-      <c r="D486" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="E486" s="7"/>
-      <c r="F486" t="s" s="9">
-        <v>1076</v>
-      </c>
-      <c r="G486" s="7"/>
-      <c r="H486" t="s" s="9">
-        <v>1077</v>
-      </c>
-      <c r="I486" t="s" s="11">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="487" ht="28" customHeight="1">
-      <c r="A487" s="22"/>
-      <c r="B487" t="s" s="21">
-        <v>1078</v>
-      </c>
-      <c r="C487" t="s" s="9">
-        <v>1079</v>
-      </c>
-      <c r="D487" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="E487" s="7"/>
-      <c r="F487" t="s" s="9">
-        <v>1076</v>
-      </c>
-      <c r="G487" s="7"/>
-      <c r="H487" t="s" s="9">
-        <v>1080</v>
-      </c>
-      <c r="I487" t="s" s="11">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="488" ht="28" customHeight="1">
-      <c r="A488" s="22"/>
-      <c r="B488" t="s" s="21">
-        <v>1082</v>
-      </c>
-      <c r="C488" t="s" s="9">
-        <v>1083</v>
-      </c>
-      <c r="D488" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="E488" s="7"/>
-      <c r="F488" t="s" s="9">
-        <v>1084</v>
-      </c>
-      <c r="G488" s="7"/>
-      <c r="H488" t="s" s="9">
-        <v>1085</v>
-      </c>
-      <c r="I488" t="s" s="11">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="489" ht="28" customHeight="1">
-      <c r="A489" s="22"/>
-      <c r="B489" t="s" s="21">
-        <v>1086</v>
-      </c>
-      <c r="C489" t="s" s="9">
-        <v>1087</v>
-      </c>
-      <c r="D489" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="E489" s="7"/>
-      <c r="F489" t="s" s="9">
-        <v>1084</v>
-      </c>
-      <c r="G489" s="7"/>
-      <c r="H489" t="s" s="9">
-        <v>1088</v>
-      </c>
-      <c r="I489" t="s" s="11">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="490" ht="28" customHeight="1">
-      <c r="A490" s="22"/>
-      <c r="B490" t="s" s="21">
-        <v>1090</v>
-      </c>
-      <c r="C490" t="s" s="9">
-        <v>1091</v>
-      </c>
-      <c r="D490" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="E490" s="7"/>
-      <c r="F490" t="s" s="9">
-        <v>1066</v>
-      </c>
-      <c r="G490" s="7"/>
-      <c r="H490" t="s" s="9">
-        <v>1092</v>
-      </c>
-      <c r="I490" t="s" s="11">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -18287,794 +17912,794 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="23" customWidth="1"/>
-    <col min="2" max="2" width="169.25" style="23" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="23" customWidth="1"/>
-    <col min="6" max="256" width="6.625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9" style="22" customWidth="1"/>
+    <col min="2" max="2" width="169.25" style="22" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="22" customWidth="1"/>
+    <col min="6" max="256" width="6.625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="24">
-        <v>1093</v>
-      </c>
-      <c r="B1" t="s" s="24">
-        <v>1094</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="A1" t="s" s="23">
+        <v>1040</v>
+      </c>
+      <c r="B1" t="s" s="23">
+        <v>1041</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="9">
         <v>18</v>
       </c>
       <c r="B2" t="s" s="6">
-        <v>1095</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+        <v>1042</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="9">
         <v>19</v>
       </c>
       <c r="B3" t="s" s="6">
-        <v>1096</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>1043</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" ht="56" customHeight="1">
       <c r="A4" t="s" s="9">
         <v>20</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>1097</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+        <v>1044</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" ht="17" customHeight="1">
       <c r="A5" t="s" s="9">
         <v>24</v>
       </c>
       <c r="B5" t="s" s="6">
-        <v>1098</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+        <v>1045</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s" s="9">
         <v>26</v>
       </c>
       <c r="B6" t="s" s="6">
-        <v>1099</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
+        <v>1046</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s" s="9">
         <v>28</v>
       </c>
       <c r="B7" t="s" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
+        <v>1047</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" t="s" s="9">
         <v>30</v>
       </c>
       <c r="B8" t="s" s="6">
-        <v>1101</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
+        <v>1048</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="28" customHeight="1">
       <c r="A9" t="s" s="9">
         <v>33</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>1102</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
+        <v>1049</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" ht="28" customHeight="1">
       <c r="A10" t="s" s="9">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>1104</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+        <v>1051</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" t="s" s="9">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>1105</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
+        <v>1053</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" ht="17" customHeight="1">
       <c r="A12" t="s" s="9">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>1106</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
+        <v>1055</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" ht="28" customHeight="1">
       <c r="A13" t="s" s="9">
         <v>34</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>1107</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+        <v>1056</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" ht="17" customHeight="1">
       <c r="A14" t="s" s="9">
         <v>36</v>
       </c>
       <c r="B14" t="s" s="6">
-        <v>1108</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+        <v>1057</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="9">
         <v>39</v>
       </c>
       <c r="B15" t="s" s="6">
-        <v>1109</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
+        <v>1058</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" t="s" s="9">
         <v>37</v>
       </c>
       <c r="B16" t="s" s="6">
-        <v>1110</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
+        <v>1059</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" ht="42" customHeight="1">
       <c r="A17" t="s" s="9">
         <v>38</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>1111</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
+        <v>1060</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" ht="17" customHeight="1">
       <c r="A18" t="s" s="9">
         <v>41</v>
       </c>
       <c r="B18" t="s" s="6">
-        <v>1112</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+        <v>1061</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" ht="17" customHeight="1">
       <c r="A19" t="s" s="9">
         <v>46</v>
       </c>
       <c r="B19" t="s" s="6">
-        <v>1113</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+        <v>1062</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" ht="17" customHeight="1">
       <c r="A20" t="s" s="9">
         <v>47</v>
       </c>
       <c r="B20" t="s" s="6">
-        <v>1114</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+        <v>1063</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" ht="17" customHeight="1">
       <c r="A21" t="s" s="9">
-        <v>1115</v>
+        <v>1064</v>
       </c>
       <c r="B21" t="s" s="6">
-        <v>1116</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
+        <v>1065</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" ht="17" customHeight="1">
       <c r="A22" t="s" s="9">
-        <v>1117</v>
+        <v>1066</v>
       </c>
       <c r="B22" t="s" s="6">
-        <v>1118</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+        <v>1067</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" ht="42" customHeight="1">
       <c r="A23" t="s" s="9">
         <v>48</v>
       </c>
-      <c r="B23" t="s" s="31">
-        <v>1119</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="B23" t="s" s="30">
+        <v>1068</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" ht="17" customHeight="1">
       <c r="A24" t="s" s="9">
         <v>51</v>
       </c>
       <c r="B24" t="s" s="6">
-        <v>1120</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
+        <v>1069</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" ht="17" customHeight="1">
       <c r="A25" t="s" s="9">
         <v>52</v>
       </c>
       <c r="B25" t="s" s="6">
-        <v>1121</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
+        <v>1070</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" ht="42" customHeight="1">
       <c r="A26" t="s" s="9">
         <v>53</v>
       </c>
-      <c r="B26" t="s" s="31">
-        <v>1122</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="B26" t="s" s="30">
+        <v>1071</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" ht="17" customHeight="1">
       <c r="A27" t="s" s="9">
         <v>56</v>
       </c>
       <c r="B27" t="s" s="6">
-        <v>1123</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
+        <v>1072</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" ht="17" customHeight="1">
       <c r="A28" t="s" s="9">
         <v>58</v>
       </c>
       <c r="B28" t="s" s="6">
-        <v>1124</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
+        <v>1073</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" ht="17" customHeight="1">
       <c r="A29" t="s" s="9">
         <v>59</v>
       </c>
       <c r="B29" t="s" s="6">
-        <v>1125</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
+        <v>1074</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" ht="17" customHeight="1">
       <c r="A30" t="s" s="9">
         <v>61</v>
       </c>
       <c r="B30" t="s" s="6">
-        <v>1126</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
+        <v>1075</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" ht="17" customHeight="1">
       <c r="A31" t="s" s="9">
         <v>62</v>
       </c>
       <c r="B31" t="s" s="6">
-        <v>1127</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
+        <v>1076</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
     </row>
     <row r="32" ht="17" customHeight="1">
       <c r="A32" t="s" s="9">
         <v>64</v>
       </c>
       <c r="B32" t="s" s="6">
-        <v>1128</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
+        <v>1077</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
     </row>
     <row r="33" ht="42" customHeight="1">
       <c r="A33" t="s" s="9">
         <v>65</v>
       </c>
-      <c r="B33" t="s" s="31">
-        <v>1129</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
+      <c r="B33" t="s" s="30">
+        <v>1078</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
     </row>
     <row r="34" ht="17" customHeight="1">
       <c r="A34" t="s" s="9">
         <v>67</v>
       </c>
       <c r="B34" t="s" s="6">
-        <v>1130</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
+        <v>1079</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
     </row>
     <row r="35" ht="42" customHeight="1">
       <c r="A35" t="s" s="9">
         <v>68</v>
       </c>
-      <c r="B35" t="s" s="31">
-        <v>1131</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
+      <c r="B35" t="s" s="30">
+        <v>1080</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" ht="17" customHeight="1">
       <c r="A36" t="s" s="9">
         <v>70</v>
       </c>
       <c r="B36" t="s" s="6">
-        <v>1132</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
+        <v>1081</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
     </row>
     <row r="37" ht="42" customHeight="1">
       <c r="A37" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="B37" t="s" s="31">
-        <v>1133</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
+      <c r="B37" t="s" s="30">
+        <v>1082</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
     </row>
     <row r="38" ht="42" customHeight="1">
       <c r="A38" t="s" s="9">
         <v>74</v>
       </c>
-      <c r="B38" t="s" s="31">
-        <v>1134</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
+      <c r="B38" t="s" s="30">
+        <v>1083</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
     </row>
     <row r="39" ht="17" customHeight="1">
       <c r="A39" t="s" s="9">
         <v>88</v>
       </c>
       <c r="B39" t="s" s="6">
-        <v>1135</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
+        <v>1084</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
     </row>
     <row r="40" ht="17" customHeight="1">
       <c r="A40" t="s" s="9">
         <v>108</v>
       </c>
       <c r="B40" t="s" s="6">
-        <v>1136</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
+        <v>1085</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
     </row>
     <row r="41" ht="17" customHeight="1">
       <c r="A41" t="s" s="9">
         <v>82</v>
       </c>
       <c r="B41" t="s" s="6">
-        <v>1137</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
+        <v>1086</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
     </row>
     <row r="42" ht="17" customHeight="1">
       <c r="A42" t="s" s="9">
         <v>94</v>
       </c>
       <c r="B42" t="s" s="6">
-        <v>1138</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
+        <v>1087</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
     </row>
     <row r="43" ht="17" customHeight="1">
       <c r="A43" t="s" s="9">
         <v>89</v>
       </c>
       <c r="B43" t="s" s="6">
-        <v>1139</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
+        <v>1088</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29"/>
     </row>
     <row r="44" ht="17" customHeight="1">
       <c r="A44" t="s" s="9">
         <v>109</v>
       </c>
       <c r="B44" t="s" s="6">
-        <v>1140</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
+        <v>1089</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29"/>
     </row>
     <row r="45" ht="17" customHeight="1">
       <c r="A45" t="s" s="9">
         <v>83</v>
       </c>
       <c r="B45" t="s" s="6">
-        <v>1141</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
+        <v>1090</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
     </row>
     <row r="46" ht="17" customHeight="1">
       <c r="A46" t="s" s="9">
         <v>95</v>
       </c>
       <c r="B46" t="s" s="6">
-        <v>1142</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
+        <v>1091</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="29"/>
     </row>
     <row r="47" ht="42" customHeight="1">
       <c r="A47" t="s" s="9">
         <v>90</v>
       </c>
-      <c r="B47" t="s" s="31">
-        <v>1143</v>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
+      <c r="B47" t="s" s="30">
+        <v>1092</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="29"/>
     </row>
     <row r="48" ht="42" customHeight="1">
       <c r="A48" t="s" s="9">
         <v>110</v>
       </c>
-      <c r="B48" t="s" s="31">
-        <v>1144</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
+      <c r="B48" t="s" s="30">
+        <v>1093</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="29"/>
     </row>
     <row r="49" ht="42" customHeight="1">
       <c r="A49" t="s" s="9">
         <v>84</v>
       </c>
-      <c r="B49" t="s" s="31">
-        <v>1145</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
+      <c r="B49" t="s" s="30">
+        <v>1094</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
     </row>
     <row r="50" ht="42" customHeight="1">
       <c r="A50" t="s" s="9">
         <v>96</v>
       </c>
-      <c r="B50" t="s" s="31">
-        <v>1146</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="30"/>
+      <c r="B50" t="s" s="30">
+        <v>1095</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
     </row>
     <row r="51" ht="17" customHeight="1">
       <c r="A51" t="s" s="9">
-        <v>1042</v>
+        <v>1096</v>
       </c>
       <c r="B51" t="s" s="6">
-        <v>1147</v>
-      </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="30"/>
+        <v>1097</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
     </row>
     <row r="52" ht="17" customHeight="1">
       <c r="A52" t="s" s="9">
-        <v>1043</v>
+        <v>1098</v>
       </c>
       <c r="B52" t="s" s="6">
-        <v>1148</v>
-      </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30"/>
+        <v>1099</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="29"/>
     </row>
     <row r="53" ht="56" customHeight="1">
       <c r="A53" t="s" s="9">
-        <v>1044</v>
-      </c>
-      <c r="B53" t="s" s="31">
-        <v>1149</v>
-      </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
+        <v>1100</v>
+      </c>
+      <c r="B53" t="s" s="30">
+        <v>1101</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="29"/>
     </row>
     <row r="54" ht="42" customHeight="1">
       <c r="A54" t="s" s="9">
-        <v>1050</v>
-      </c>
-      <c r="B54" t="s" s="31">
-        <v>1150</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
+        <v>1102</v>
+      </c>
+      <c r="B54" t="s" s="30">
+        <v>1103</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="29"/>
     </row>
     <row r="55" ht="17" customHeight="1">
       <c r="A55" t="s" s="9">
-        <v>1054</v>
+        <v>1104</v>
       </c>
       <c r="B55" t="s" s="6">
-        <v>1151</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="30"/>
+        <v>1105</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="29"/>
     </row>
     <row r="56" ht="56" customHeight="1">
       <c r="A56" t="s" s="9">
-        <v>1055</v>
-      </c>
-      <c r="B56" t="s" s="31">
-        <v>1152</v>
-      </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="30"/>
+        <v>1106</v>
+      </c>
+      <c r="B56" t="s" s="30">
+        <v>1107</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="29"/>
     </row>
     <row r="57" ht="17" customHeight="1">
       <c r="A57" t="s" s="9">
-        <v>1059</v>
+        <v>1108</v>
       </c>
       <c r="B57" t="s" s="6">
-        <v>1153</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="30"/>
+        <v>1109</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="29"/>
     </row>
     <row r="58" ht="17" customHeight="1">
       <c r="A58" t="s" s="9">
-        <v>1062</v>
+        <v>1110</v>
       </c>
       <c r="B58" t="s" s="6">
-        <v>1154</v>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="30"/>
+        <v>1111</v>
+      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="29"/>
     </row>
     <row r="59" ht="17" customHeight="1">
       <c r="A59" t="s" s="9">
-        <v>1065</v>
+        <v>1112</v>
       </c>
       <c r="B59" t="s" s="6">
-        <v>1155</v>
-      </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="30"/>
+        <v>1113</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="29"/>
     </row>
     <row r="60" ht="17" customHeight="1">
       <c r="A60" t="s" s="9">
-        <v>1066</v>
+        <v>1114</v>
       </c>
       <c r="B60" t="s" s="6">
-        <v>1156</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="30"/>
+        <v>1115</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="29"/>
     </row>
     <row r="61" ht="42" customHeight="1">
       <c r="A61" t="s" s="9">
-        <v>1067</v>
-      </c>
-      <c r="B61" t="s" s="31">
-        <v>1157</v>
-      </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="30"/>
+        <v>1116</v>
+      </c>
+      <c r="B61" t="s" s="30">
+        <v>1117</v>
+      </c>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29"/>
     </row>
     <row r="62" ht="17" customHeight="1">
       <c r="A62" t="s" s="9">
-        <v>1071</v>
+        <v>1118</v>
       </c>
       <c r="B62" t="s" s="6">
-        <v>1158</v>
-      </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="30"/>
+        <v>1119</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29"/>
     </row>
     <row r="63" ht="17" customHeight="1">
       <c r="A63" t="s" s="9">
-        <v>1072</v>
+        <v>1120</v>
       </c>
       <c r="B63" t="s" s="6">
-        <v>1159</v>
-      </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="30"/>
+        <v>1121</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="29"/>
     </row>
     <row r="64" ht="42" customHeight="1">
       <c r="A64" t="s" s="9">
-        <v>1073</v>
-      </c>
-      <c r="B64" t="s" s="31">
-        <v>1160</v>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="30"/>
+        <v>1122</v>
+      </c>
+      <c r="B64" t="s" s="30">
+        <v>1123</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="29"/>
     </row>
     <row r="65" ht="17" customHeight="1">
       <c r="A65" t="s" s="9">
-        <v>1076</v>
+        <v>1124</v>
       </c>
       <c r="B65" t="s" s="6">
-        <v>1161</v>
-      </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="30"/>
+        <v>1125</v>
+      </c>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="29"/>
     </row>
     <row r="66" ht="17" customHeight="1">
       <c r="A66" t="s" s="9">
-        <v>1084</v>
+        <v>1126</v>
       </c>
       <c r="B66" t="s" s="6">
-        <v>1162</v>
-      </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="30"/>
+        <v>1127</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="29"/>
     </row>
     <row r="67" ht="42" customHeight="1">
       <c r="A67" t="s" s="9">
-        <v>1077</v>
-      </c>
-      <c r="B67" t="s" s="31">
-        <v>1163</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="30"/>
+        <v>1128</v>
+      </c>
+      <c r="B67" t="s" s="30">
+        <v>1129</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="29"/>
     </row>
     <row r="68" ht="42" customHeight="1">
       <c r="A68" t="s" s="9">
-        <v>1080</v>
-      </c>
-      <c r="B68" t="s" s="31">
-        <v>1164</v>
-      </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="30"/>
+        <v>1130</v>
+      </c>
+      <c r="B68" t="s" s="30">
+        <v>1131</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="29"/>
     </row>
     <row r="69" ht="42" customHeight="1">
       <c r="A69" t="s" s="9">
-        <v>1085</v>
-      </c>
-      <c r="B69" t="s" s="31">
-        <v>1165</v>
-      </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="30"/>
+        <v>1132</v>
+      </c>
+      <c r="B69" t="s" s="30">
+        <v>1133</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="29"/>
     </row>
     <row r="70" ht="42" customHeight="1">
       <c r="A70" t="s" s="9">
-        <v>1088</v>
-      </c>
-      <c r="B70" t="s" s="31">
-        <v>1166</v>
-      </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="30"/>
+        <v>1134</v>
+      </c>
+      <c r="B70" t="s" s="30">
+        <v>1135</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="29"/>
     </row>
     <row r="71" ht="42" customHeight="1">
       <c r="A71" t="s" s="9">
-        <v>1092</v>
-      </c>
-      <c r="B71" t="s" s="31">
-        <v>1167</v>
-      </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="34"/>
+        <v>1136</v>
+      </c>
+      <c r="B71" t="s" s="30">
+        <v>1137</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19093,45 +18718,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="35" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="35" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="35" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="69.375" style="35" customWidth="1"/>
-    <col min="10" max="256" width="6.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="34" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="15" style="34" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="34" customWidth="1"/>
+    <col min="7" max="7" width="22.875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="69.375" style="34" customWidth="1"/>
+    <col min="10" max="256" width="6.625" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" s="36"/>
-      <c r="B1" t="s" s="37">
-        <v>1168</v>
-      </c>
-      <c r="C1" t="s" s="37">
-        <v>1169</v>
-      </c>
-      <c r="D1" t="s" s="37">
-        <v>1170</v>
-      </c>
-      <c r="E1" t="s" s="37">
-        <v>1171</v>
-      </c>
-      <c r="F1" t="s" s="37">
-        <v>1172</v>
-      </c>
-      <c r="G1" t="s" s="37">
-        <v>1173</v>
+      <c r="A1" s="35"/>
+      <c r="B1" t="s" s="36">
+        <v>1138</v>
+      </c>
+      <c r="C1" t="s" s="36">
+        <v>1139</v>
+      </c>
+      <c r="D1" t="s" s="36">
+        <v>1140</v>
+      </c>
+      <c r="E1" t="s" s="36">
+        <v>1141</v>
+      </c>
+      <c r="F1" t="s" s="36">
+        <v>1142</v>
+      </c>
+      <c r="G1" t="s" s="36">
+        <v>1143</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>1174</v>
+        <v>1144</v>
       </c>
       <c r="I1" s="7"/>
     </row>
     <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="38">
+      <c r="A2" t="s" s="37">
         <v>12</v>
       </c>
       <c r="B2" t="s" s="9">
@@ -19144,21 +18769,21 @@
         <v>82</v>
       </c>
       <c r="E2" t="s" s="9">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="F2" t="s" s="9">
         <v>94</v>
       </c>
       <c r="G2" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="H2" t="s" s="37">
-        <v>1175</v>
+        <v>1052</v>
+      </c>
+      <c r="H2" t="s" s="36">
+        <v>1145</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="38">
+      <c r="A3" t="s" s="37">
         <v>14</v>
       </c>
       <c r="B3" t="s" s="9">
@@ -19171,21 +18796,21 @@
         <v>83</v>
       </c>
       <c r="E3" t="s" s="9">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="F3" t="s" s="9">
         <v>95</v>
       </c>
       <c r="G3" t="s" s="9">
-        <v>1049</v>
-      </c>
-      <c r="H3" t="s" s="39">
-        <v>1176</v>
+        <v>1054</v>
+      </c>
+      <c r="H3" t="s" s="38">
+        <v>1146</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="38">
+      <c r="A4" t="s" s="37">
         <v>15</v>
       </c>
       <c r="B4" t="s" s="9">
@@ -19198,55 +18823,55 @@
         <v>84</v>
       </c>
       <c r="E4" t="s" s="9">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="F4" t="s" s="9">
         <v>96</v>
       </c>
       <c r="G4" t="s" s="9">
-        <v>1103</v>
-      </c>
-      <c r="H4" t="s" s="37">
-        <v>1177</v>
+        <v>1050</v>
+      </c>
+      <c r="H4" t="s" s="36">
+        <v>1147</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" t="s" s="39">
-        <v>1178</v>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" t="s" s="38">
+        <v>1148</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" t="s" s="39">
-        <v>1179</v>
+      <c r="H6" t="s" s="38">
+        <v>1149</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="7"/>
-      <c r="H7" t="s" s="39">
-        <v>1180</v>
+      <c r="H7" t="s" s="38">
+        <v>1150</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -19258,8 +18883,8 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" t="s" s="37">
-        <v>1181</v>
+      <c r="H8" t="s" s="36">
+        <v>1151</v>
       </c>
       <c r="I8" s="7"/>
     </row>
@@ -19271,8 +18896,8 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" t="s" s="39">
-        <v>1182</v>
+      <c r="H9" t="s" s="38">
+        <v>1152</v>
       </c>
       <c r="I9" s="7"/>
     </row>
@@ -19284,8 +18909,8 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" t="s" s="37">
-        <v>1183</v>
+      <c r="H10" t="s" s="36">
+        <v>1153</v>
       </c>
       <c r="I10" s="7"/>
     </row>
@@ -19297,8 +18922,8 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" t="s" s="39">
-        <v>1184</v>
+      <c r="H11" t="s" s="38">
+        <v>1154</v>
       </c>
       <c r="I11" s="7"/>
     </row>
@@ -19310,14 +18935,14 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" t="s" s="39">
-        <v>1185</v>
+      <c r="H12" t="s" s="38">
+        <v>1155</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" ht="17" customHeight="1">
       <c r="A13" t="s" s="9">
-        <v>1186</v>
+        <v>1156</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -19333,18 +18958,18 @@
         <v>32</v>
       </c>
       <c r="B14" t="s" s="9">
-        <v>1187</v>
+        <v>1157</v>
       </c>
       <c r="C14" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="D14" s="43"/>
+        <v>1052</v>
+      </c>
+      <c r="D14" s="42"/>
       <c r="E14" t="s" s="9">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" t="s" s="9">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -19354,18 +18979,18 @@
         <v>35</v>
       </c>
       <c r="B15" t="s" s="9">
-        <v>1187</v>
+        <v>1157</v>
       </c>
       <c r="C15" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="D15" s="43"/>
+        <v>1052</v>
+      </c>
+      <c r="D15" s="42"/>
       <c r="E15" t="s" s="9">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" t="s" s="9">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -19375,29 +19000,29 @@
         <v>40</v>
       </c>
       <c r="B16" t="s" s="9">
-        <v>1187</v>
+        <v>1157</v>
       </c>
       <c r="C16" t="s" s="9">
-        <v>1048</v>
-      </c>
-      <c r="D16" s="43"/>
+        <v>1052</v>
+      </c>
+      <c r="D16" s="42"/>
       <c r="E16" t="s" s="9">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" t="s" s="9">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" ht="17" customHeight="1">
       <c r="A17" t="s" s="9">
-        <v>1188</v>
+        <v>1158</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="10"/>
       <c r="F17" s="7"/>
       <c r="G17" s="10"/>
@@ -19406,23 +19031,23 @@
     </row>
     <row r="18" ht="17" customHeight="1">
       <c r="A18" t="s" s="9">
-        <v>1189</v>
+        <v>1159</v>
       </c>
       <c r="B18" t="s" s="9">
-        <v>1187</v>
+        <v>1157</v>
       </c>
       <c r="C18" t="s" s="9">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" t="s" s="9">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" t="s" s="9">
-        <v>1103</v>
-      </c>
-      <c r="H18" s="42"/>
+        <v>1050</v>
+      </c>
+      <c r="H18" s="41"/>
       <c r="I18" s="7"/>
     </row>
     <row r="19" ht="17" customHeight="1">
@@ -19430,18 +19055,18 @@
         <v>44</v>
       </c>
       <c r="B19" t="s" s="9">
-        <v>1187</v>
+        <v>1157</v>
       </c>
       <c r="C19" t="s" s="9">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" t="s" s="9">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" t="s" s="9">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -19451,18 +19076,18 @@
         <v>50</v>
       </c>
       <c r="B20" t="s" s="9">
-        <v>1187</v>
+        <v>1157</v>
       </c>
       <c r="C20" t="s" s="9">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" t="s" s="9">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" t="s" s="9">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -19472,18 +19097,18 @@
         <v>55</v>
       </c>
       <c r="B21" t="s" s="9">
-        <v>1187</v>
+        <v>1157</v>
       </c>
       <c r="C21" t="s" s="9">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" t="s" s="9">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" t="s" s="9">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -19493,18 +19118,18 @@
         <v>57</v>
       </c>
       <c r="B22" t="s" s="9">
-        <v>1187</v>
+        <v>1157</v>
       </c>
       <c r="C22" t="s" s="9">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" t="s" s="9">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" t="s" s="9">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -19514,37 +19139,37 @@
         <v>60</v>
       </c>
       <c r="B23" t="s" s="9">
-        <v>1187</v>
+        <v>1157</v>
       </c>
       <c r="C23" t="s" s="9">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" t="s" s="9">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" t="s" s="9">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
     <row r="24" ht="17" customHeight="1">
       <c r="A24" t="s" s="9">
-        <v>1189</v>
+        <v>1159</v>
       </c>
       <c r="B24" t="s" s="9">
-        <v>1190</v>
+        <v>1160</v>
       </c>
       <c r="C24" t="s" s="9">
-        <v>1115</v>
-      </c>
-      <c r="D24" s="44"/>
+        <v>1064</v>
+      </c>
+      <c r="D24" s="43"/>
       <c r="E24" t="s" s="9">
-        <v>1117</v>
-      </c>
-      <c r="F24" s="44"/>
+        <v>1066</v>
+      </c>
+      <c r="F24" s="43"/>
       <c r="G24" t="s" s="9">
         <v>48</v>
       </c>
